--- a/results/Imputed v Not Imputed (7).xlsx
+++ b/results/Imputed v Not Imputed (7).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/MM2/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E589736-A219-DB46-A009-2F6FD99AB638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE9A290-B213-6D43-AFC6-E71D85EC90B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2440" yWindow="9160" windowWidth="27680" windowHeight="17500" xr2:uid="{FDB991F3-65B7-2442-88EF-AF8858A1CE50}"/>
   </bookViews>
@@ -735,7 +735,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
+      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1003,10 +1003,10 @@
         <v>600</v>
       </c>
       <c r="I7" s="37">
-        <v>0.4446</v>
+        <v>0.5554</v>
       </c>
       <c r="J7" s="38">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K7" s="33">
         <v>165</v>
@@ -1015,7 +1015,7 @@
         <v>600</v>
       </c>
       <c r="M7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">

--- a/results/Imputed v Not Imputed (7).xlsx
+++ b/results/Imputed v Not Imputed (7).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/MM2/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE9A290-B213-6D43-AFC6-E71D85EC90B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A813E27-7822-5E4E-A142-361DE2E5A575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="9160" windowWidth="27680" windowHeight="17500" xr2:uid="{FDB991F3-65B7-2442-88EF-AF8858A1CE50}"/>
+    <workbookView xWindow="2740" yWindow="10380" windowWidth="27680" windowHeight="17500" xr2:uid="{FDB991F3-65B7-2442-88EF-AF8858A1CE50}"/>
   </bookViews>
   <sheets>
     <sheet name="Strategies" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>Year</t>
   </si>
@@ -65,19 +65,16 @@
     <t>v/t</t>
   </si>
   <si>
-    <t xml:space="preserve">       Base</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Imputed</t>
   </si>
   <si>
     <t>Not Imputed</t>
   </si>
   <si>
-    <t>*</t>
+    <t>Imputed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Base</t>
   </si>
 </sst>
 </file>
@@ -366,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -389,32 +386,16 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -729,50 +710,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5BCF68F-9CA1-1A41-B9FD-C7E5B292FD92}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="4" width="5.83203125" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.83203125" style="29" customWidth="1"/>
-    <col min="7" max="8" width="5.83203125" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.83203125" style="29" customWidth="1"/>
-    <col min="11" max="11" width="5.83203125" style="33" customWidth="1"/>
-    <col min="12" max="12" width="5.83203125" customWidth="1"/>
-    <col min="13" max="13" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="28" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G1" s="7"/>
       <c r="H1" s="6"/>
       <c r="I1" s="5"/>
-      <c r="J1" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="2"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="7"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
@@ -782,11 +762,11 @@
       <c r="C2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>5</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>8</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>6</v>
@@ -801,60 +781,64 @@
         <v>8</v>
       </c>
       <c r="J2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="L2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="M2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20">
+    <row r="3" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="24">
         <v>2000</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="25">
         <v>212</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="25">
         <v>433</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="26">
+        <v>0.503</v>
+      </c>
+      <c r="E3" s="25">
         <v>6</v>
       </c>
-      <c r="E3" s="21">
-        <v>0.503</v>
-      </c>
-      <c r="F3" s="22">
+      <c r="F3" s="25">
         <v>89</v>
       </c>
-      <c r="G3" s="22">
-        <v>165</v>
-      </c>
-      <c r="H3" s="22">
-        <v>600</v>
-      </c>
-      <c r="I3" s="36">
+      <c r="G3" s="25">
+        <v>165</v>
+      </c>
+      <c r="H3" s="25">
+        <v>600</v>
+      </c>
+      <c r="I3" s="26">
         <v>0.49819999999999998</v>
       </c>
-      <c r="J3" s="32">
+      <c r="J3" s="25">
+        <v>4</v>
+      </c>
+      <c r="K3" s="25">
         <v>85</v>
       </c>
-      <c r="K3" s="32">
-        <v>165</v>
-      </c>
-      <c r="L3" s="23">
-        <v>600</v>
-      </c>
-      <c r="M3" t="s">
-        <v>13</v>
-      </c>
+      <c r="L3" s="25">
+        <v>165</v>
+      </c>
+      <c r="M3" s="27">
+        <v>600</v>
+      </c>
+      <c r="N3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>2002</v>
       </c>
@@ -864,38 +848,41 @@
       <c r="C4">
         <v>434</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
+        <v>0.48270000000000002</v>
+      </c>
+      <c r="E4">
         <v>4</v>
       </c>
-      <c r="E4" s="3">
-        <v>0.48270000000000002</v>
-      </c>
-      <c r="F4" s="29">
+      <c r="F4">
         <v>84</v>
       </c>
       <c r="G4">
         <v>165</v>
       </c>
-      <c r="H4" s="29">
-        <v>600</v>
-      </c>
-      <c r="I4" s="37">
+      <c r="H4" s="28">
+        <v>600</v>
+      </c>
+      <c r="I4" s="3">
         <v>0.47560000000000002</v>
       </c>
-      <c r="J4" s="38">
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
         <v>79</v>
       </c>
-      <c r="K4" s="33">
-        <v>165</v>
-      </c>
-      <c r="L4" s="11">
-        <v>600</v>
-      </c>
-      <c r="M4" t="s">
-        <v>13</v>
+      <c r="L4">
+        <v>165</v>
+      </c>
+      <c r="M4" s="11">
+        <v>600</v>
+      </c>
+      <c r="N4" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>2004</v>
       </c>
@@ -905,79 +892,85 @@
       <c r="C5">
         <v>434</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
+        <v>0.4919</v>
+      </c>
+      <c r="E5">
         <v>12</v>
       </c>
-      <c r="E5" s="3">
-        <v>0.4919</v>
-      </c>
-      <c r="F5" s="29">
+      <c r="F5">
         <v>93</v>
       </c>
       <c r="G5">
         <v>165</v>
       </c>
-      <c r="H5" s="29">
-        <v>600</v>
-      </c>
-      <c r="I5" s="37">
+      <c r="H5" s="28">
+        <v>600</v>
+      </c>
+      <c r="I5" s="3">
         <v>0.48630000000000001</v>
       </c>
-      <c r="J5" s="38">
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
         <v>90</v>
       </c>
-      <c r="K5" s="33">
-        <v>165</v>
-      </c>
-      <c r="L5" s="11">
-        <v>600</v>
-      </c>
-      <c r="M5" t="s">
-        <v>13</v>
+      <c r="L5">
+        <v>165</v>
+      </c>
+      <c r="M5" s="11">
+        <v>600</v>
+      </c>
+      <c r="N5" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="40">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
         <v>2006</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6">
         <v>233</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6">
         <v>435</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="3">
+        <v>0.54039999999999999</v>
+      </c>
+      <c r="E6">
         <v>2</v>
       </c>
-      <c r="E6" s="37">
-        <v>0.54039999999999999</v>
-      </c>
-      <c r="F6" s="38">
+      <c r="F6">
         <v>92</v>
       </c>
-      <c r="G6" s="33">
-        <v>165</v>
-      </c>
-      <c r="H6" s="38">
-        <v>600</v>
-      </c>
-      <c r="I6" s="37">
+      <c r="G6">
+        <v>165</v>
+      </c>
+      <c r="H6" s="28">
+        <v>600</v>
+      </c>
+      <c r="I6" s="3">
         <v>0.54120000000000001</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="29">
+        <v>2</v>
+      </c>
+      <c r="K6">
         <v>92</v>
       </c>
-      <c r="K6" s="33">
-        <v>165</v>
-      </c>
-      <c r="L6" s="41">
-        <v>600</v>
-      </c>
-      <c r="M6" t="s">
-        <v>10</v>
+      <c r="L6">
+        <v>165</v>
+      </c>
+      <c r="M6" s="11">
+        <v>600</v>
+      </c>
+      <c r="N6" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>2008</v>
       </c>
@@ -987,79 +980,85 @@
       <c r="C7">
         <v>435</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
+        <v>0.55289999999999995</v>
+      </c>
+      <c r="E7">
         <v>-16</v>
       </c>
-      <c r="E7" s="3">
-        <v>0.55289999999999995</v>
-      </c>
-      <c r="F7" s="29">
+      <c r="F7">
         <v>75</v>
       </c>
       <c r="G7">
         <v>165</v>
       </c>
-      <c r="H7" s="29">
-        <v>600</v>
-      </c>
-      <c r="I7" s="37">
+      <c r="H7" s="28">
+        <v>600</v>
+      </c>
+      <c r="I7" s="3">
         <v>0.5554</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="29">
+        <v>-15</v>
+      </c>
+      <c r="K7">
         <v>77</v>
       </c>
-      <c r="K7" s="33">
-        <v>165</v>
-      </c>
-      <c r="L7" s="11">
-        <v>600</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="L7">
+        <v>165</v>
+      </c>
+      <c r="M7" s="11">
+        <v>600</v>
+      </c>
+      <c r="N7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="20">
+        <v>2010</v>
+      </c>
+      <c r="B8" s="22">
+        <v>193</v>
+      </c>
+      <c r="C8" s="22">
+        <v>435</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0.4723</v>
+      </c>
+      <c r="E8" s="22">
+        <v>12</v>
+      </c>
+      <c r="F8" s="22">
+        <v>90</v>
+      </c>
+      <c r="G8" s="22">
+        <v>165</v>
+      </c>
+      <c r="H8" s="22">
+        <v>600</v>
+      </c>
+      <c r="I8" s="21">
+        <v>0.4556</v>
+      </c>
+      <c r="J8" s="22">
         <v>10</v>
       </c>
+      <c r="K8" s="22">
+        <v>86</v>
+      </c>
+      <c r="L8" s="22">
+        <v>165</v>
+      </c>
+      <c r="M8" s="23">
+        <v>600</v>
+      </c>
+      <c r="N8" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="24">
-        <v>2010</v>
-      </c>
-      <c r="B8" s="26">
-        <v>193</v>
-      </c>
-      <c r="C8" s="26">
-        <v>435</v>
-      </c>
-      <c r="D8" s="26">
-        <v>12</v>
-      </c>
-      <c r="E8" s="25">
-        <v>0.4723</v>
-      </c>
-      <c r="F8" s="26">
-        <v>90</v>
-      </c>
-      <c r="G8" s="26">
-        <v>165</v>
-      </c>
-      <c r="H8" s="26">
-        <v>600</v>
-      </c>
-      <c r="I8" s="39">
-        <v>0.4556</v>
-      </c>
-      <c r="J8" s="34">
-        <v>86</v>
-      </c>
-      <c r="K8" s="34">
-        <v>165</v>
-      </c>
-      <c r="L8" s="27">
-        <v>600</v>
-      </c>
-      <c r="M8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>2012</v>
       </c>
@@ -1069,38 +1068,41 @@
       <c r="C9">
         <v>435</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
+        <v>0.50849999999999995</v>
+      </c>
+      <c r="E9">
         <v>20</v>
       </c>
-      <c r="E9" s="3">
-        <v>0.50849999999999995</v>
-      </c>
-      <c r="F9" s="29">
+      <c r="F9">
         <v>105</v>
       </c>
       <c r="G9">
         <v>165</v>
       </c>
-      <c r="H9" s="29">
-        <v>600</v>
-      </c>
-      <c r="I9" s="37">
-        <v>0.50560000000000005</v>
-      </c>
-      <c r="J9" s="38">
+      <c r="H9" s="28">
+        <v>600</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.50680000000000003</v>
+      </c>
+      <c r="J9" s="29">
+        <v>19</v>
+      </c>
+      <c r="K9">
         <v>104</v>
       </c>
-      <c r="K9" s="33">
-        <v>165</v>
-      </c>
-      <c r="L9" s="11">
-        <v>600</v>
-      </c>
-      <c r="M9" t="s">
-        <v>13</v>
+      <c r="L9">
+        <v>165</v>
+      </c>
+      <c r="M9" s="11">
+        <v>600</v>
+      </c>
+      <c r="N9" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>2014</v>
       </c>
@@ -1110,38 +1112,41 @@
       <c r="C10">
         <v>435</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
+        <v>0.47439999999999999</v>
+      </c>
+      <c r="E10">
         <v>18</v>
       </c>
-      <c r="E10" s="3">
-        <v>0.47439999999999999</v>
-      </c>
-      <c r="F10" s="29">
+      <c r="F10">
         <v>96</v>
       </c>
       <c r="G10">
         <v>165</v>
       </c>
-      <c r="H10" s="29">
-        <v>600</v>
-      </c>
-      <c r="I10" s="37">
+      <c r="H10" s="28">
+        <v>600</v>
+      </c>
+      <c r="I10" s="3">
         <v>0.46970000000000001</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="29">
+        <v>16</v>
+      </c>
+      <c r="K10">
         <v>93</v>
       </c>
-      <c r="K10" s="33">
-        <v>165</v>
-      </c>
-      <c r="L10" s="11">
-        <v>600</v>
-      </c>
-      <c r="M10" t="s">
-        <v>13</v>
+      <c r="L10">
+        <v>165</v>
+      </c>
+      <c r="M10" s="11">
+        <v>600</v>
+      </c>
+      <c r="N10" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>2016</v>
       </c>
@@ -1151,38 +1156,41 @@
       <c r="C11">
         <v>435</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
+        <v>0.49530000000000002</v>
+      </c>
+      <c r="E11">
         <v>21</v>
       </c>
-      <c r="E11" s="3">
-        <v>0.49530000000000002</v>
-      </c>
-      <c r="F11" s="29">
+      <c r="F11">
         <v>103</v>
       </c>
       <c r="G11">
         <v>165</v>
       </c>
-      <c r="H11" s="29">
-        <v>600</v>
-      </c>
-      <c r="I11" s="37">
+      <c r="H11" s="28">
+        <v>600</v>
+      </c>
+      <c r="I11" s="3">
         <v>0.4945</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="29">
+        <v>21</v>
+      </c>
+      <c r="K11">
         <v>102</v>
       </c>
-      <c r="K11" s="33">
-        <v>165</v>
-      </c>
-      <c r="L11" s="11">
-        <v>600</v>
-      </c>
-      <c r="M11" t="s">
-        <v>13</v>
+      <c r="L11">
+        <v>165</v>
+      </c>
+      <c r="M11" s="11">
+        <v>600</v>
+      </c>
+      <c r="N11" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>2018</v>
       </c>
@@ -1192,94 +1200,101 @@
       <c r="C12">
         <v>434</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
+        <v>0.5333</v>
+      </c>
+      <c r="E12">
         <v>-4</v>
       </c>
-      <c r="E12" s="3">
-        <v>0.5333</v>
-      </c>
-      <c r="F12" s="29">
+      <c r="F12">
         <v>85</v>
       </c>
       <c r="G12">
         <v>165</v>
       </c>
-      <c r="H12" s="29">
-        <v>600</v>
-      </c>
-      <c r="I12" s="37">
+      <c r="H12" s="28">
+        <v>600</v>
+      </c>
+      <c r="I12" s="3">
         <v>0.5444</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J12" s="29">
+        <v>1</v>
+      </c>
+      <c r="K12">
         <v>92</v>
       </c>
-      <c r="K12" s="33">
-        <v>165</v>
-      </c>
-      <c r="L12" s="11">
-        <v>600</v>
-      </c>
-      <c r="M12" t="s">
-        <v>13</v>
+      <c r="L12">
+        <v>165</v>
+      </c>
+      <c r="M12" s="11">
+        <v>600</v>
+      </c>
+      <c r="N12" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="24">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="20">
         <v>2020</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="22">
         <v>222</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="22">
         <v>435</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="21">
+        <v>0.50680000000000003</v>
+      </c>
+      <c r="E13" s="22">
         <v>-2</v>
       </c>
-      <c r="E13" s="25">
-        <v>0.50680000000000003</v>
-      </c>
-      <c r="F13" s="26">
+      <c r="F13" s="22">
         <v>83</v>
       </c>
-      <c r="G13" s="26">
-        <v>165</v>
-      </c>
-      <c r="H13" s="26">
-        <v>600</v>
-      </c>
-      <c r="I13" s="39">
+      <c r="G13" s="22">
+        <v>165</v>
+      </c>
+      <c r="H13" s="22">
+        <v>600</v>
+      </c>
+      <c r="I13" s="21">
         <v>0.51559999999999995</v>
       </c>
-      <c r="J13" s="34">
+      <c r="J13" s="22">
+        <v>2</v>
+      </c>
+      <c r="K13" s="22">
         <v>88</v>
       </c>
-      <c r="K13" s="34">
-        <v>165</v>
-      </c>
-      <c r="L13" s="27">
-        <v>600</v>
-      </c>
-      <c r="M13" t="s">
-        <v>13</v>
+      <c r="L13" s="22">
+        <v>165</v>
+      </c>
+      <c r="M13" s="23">
+        <v>600</v>
+      </c>
+      <c r="N13" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>2022</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="13"/>
       <c r="J14" s="14"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="15"/>
-      <c r="M14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="15"/>
+      <c r="N14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
